--- a/data/trans_dic/P25_7-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_7-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente)</t>
+          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente) (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,7 +705,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,52 +715,82 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>19,85%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>25,24%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>34,81%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>31,19%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31,96%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>38,76%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>26,73%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>23,94%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>26,74%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>41,65%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>24,17%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>26,95%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>27,88%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>32,11%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>32,07%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,81; 21,52</t>
+          <t>15,1; 22,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,66; 19,58</t>
+          <t>13,61; 20,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 25,87</t>
+          <t>17,86; 25,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,95; 28,97</t>
+          <t>16,43; 23,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,69; 38,6</t>
+          <t>22,03; 28,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,46; 34,18</t>
+          <t>19,31; 25,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,98; 34,71</t>
+          <t>31,47; 38,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,36; 42,5</t>
+          <t>28,13; 34,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,17; 29,32</t>
+          <t>28,86; 35,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,86; 26,33</t>
+          <t>31,51; 39,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,25; 29,07</t>
+          <t>35,24; 42,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,89; 35,04</t>
+          <t>38,26; 45,06</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>24,49; 29,61</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 26,57</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>24,53; 29,65</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>24,97; 30,89</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>29,58; 34,54</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>29,47; 34,31</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>36,58%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>37,72%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38,25%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>23,96%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>26,55%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>31,5%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>31,1%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>31,49%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,53; 24,41</t>
+          <t>13,32; 20,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,77</t>
+          <t>14,83; 21,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,88; 24,45</t>
+          <t>17,4; 25,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,23; 31,91</t>
+          <t>20,93; 30,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,97; 35,65</t>
+          <t>20,24; 31,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,73; 31,81</t>
+          <t>20,25; 31,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,55; 37,02</t>
+          <t>27,02; 35,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,58; 45,63</t>
+          <t>24,48; 32,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,56; 27,9</t>
+          <t>28,23; 36,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,74; 25,93</t>
+          <t>31,95; 41,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,8; 29,48</t>
+          <t>31,47; 44,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,79; 36,38</t>
+          <t>31,53; 45,0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>20,98; 27,07</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20,79; 26,34</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>23,83; 29,55</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>27,96; 34,95</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>27,06; 35,82</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>27,3; 35,84</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>27,42%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>43,19%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>41,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>34,57%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>38,45%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>33,06%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>29,78%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>26,56%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>30,72%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>28,78%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>26,65%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>31,01%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>30,2%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 26,12</t>
+          <t>11,07; 25,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,63; 26,15</t>
+          <t>13,3; 25,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,77; 35,26</t>
+          <t>16,29; 35,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>17,26; 44,08</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>34,94; 52,99</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,32; 42,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,1; 46,56</t>
+          <t>32,14; 48,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>27,67; 42,3</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31,47; 46,64</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25,02; 43,49</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>23,55; 35,55</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>21,46; 31,71</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>25,06; 36,91</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>23,55; 35,36</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 32,07</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>25,62; 37,99</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>23,87; 40,72</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>23,07%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>25,39%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>34,3%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>30,41%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32,91%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35,48%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>38,54%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>26,23%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>23,91%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>27,13%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>40,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>26,02%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>27,27%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>31,97%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>31,95%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,44; 20,5</t>
+          <t>15,27; 20,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 19,83</t>
+          <t>15,24; 19,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,04; 24,1</t>
+          <t>19,05; 23,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,52; 28,31</t>
+          <t>20,32; 26,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,49; 37,04</t>
+          <t>22,66; 28,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,92; 32,46</t>
+          <t>20,37; 25,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,25; 34,99</t>
+          <t>31,57; 37,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,36; 41,87</t>
+          <t>28,15; 32,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,3; 28,09</t>
+          <t>30,63; 35,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,12; 25,59</t>
+          <t>32,65; 38,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,33; 28,87</t>
+          <t>35,67; 41,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,87; 34,29</t>
+          <t>37,68; 44,12</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>24,36; 27,98</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>22,38; 25,89</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>25,7; 29,31</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>27,33; 31,5</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>29,61; 34,09</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>29,79; 34,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente) (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>331.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>509.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>537.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>299320</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>269833</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>352625</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>325481</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>57926</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>50674</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>633145</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>570362</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>579324</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>635335</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>91925</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>98332</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>932465</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>840195</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>931949</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>960816</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>149851</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>149006</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>249026; 368837</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>224297; 330668</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>293895; 418482</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>269329; 390993</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>50560; 65384</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>44113; 58443</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>567265; 700065</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>514485; 629815</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>523290; 642363</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>569239; 714406</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>83585; 100845</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>90337; 106387</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>845148; 1022145</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>761504; 923583</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>848349; 1025267</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>860370; 1064365</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>138007; 161162</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>136913; 159388</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>230884</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>248894</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>284320</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>353454</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18696</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18602</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>431143</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>386008</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>447852</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>510163</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24655</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25597</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>662027</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>634902</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>732172</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>863617</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>43350</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>44198</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>183008; 286106</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>203769; 299652</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>240031; 346289</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>289414; 424870</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14630; 23109</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14835; 22758</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>375430; 496555</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>335953; 441273</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>388998; 501816</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>445605; 584384</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20572; 29075</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21101; 30117</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>579708; 748044</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>570913; 723194</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>657189; 814792</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>776601; 970504</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>37246; 49309</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>38274; 50241</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>70222</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>80231</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>98596</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>115935</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>168165</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>141607</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>158376</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>136170</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>238386</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>221838</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>256972</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>252105</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>46343; 105404</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>56217; 108588</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>67890; 148140</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>72959; 186366</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>131605; 199816</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>113342; 173256</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>129608; 192114</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>103061; 179114</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>195075; 292920</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>182145; 266936</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>212301; 314838</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>199220; 339929</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>456.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>501.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>549.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>447.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>672.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>755.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>848.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>690.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>662.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>698.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>600426</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>598959</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>735541</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>794870</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>76622</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>69275</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1232453</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1097976</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1185552</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1281668</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>116580</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>123929</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1832879</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1696935</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1921093</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2076538</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>193202</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>193204</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>525543; 688833</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>524931; 681907</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>655604; 824961</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>699876; 921870</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>68376; 85548</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>61482; 78323</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1136981; 1333595</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1016463; 1185950</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1103500; 1281421</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1179658; 1398349</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>107896; 126281</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>114172; 133676</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1715988; 1970531</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1579027; 1826175</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1810329; 2064534</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1928547; 2223351</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>178901; 205975</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>180181; 206290</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
